--- a/studierende.xlsx
+++ b/studierende.xlsx
@@ -1847,7 +1847,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1871,13 +1871,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1929,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1973,8 +1979,14 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2284,9 +2296,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="64.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="45.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="64.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="45.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2307,7 +2319,7 @@
       <c r="B2" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="12" t="s">
@@ -2316,7 +2328,7 @@
       <c r="B3" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="12" t="s">
@@ -2336,7 +2348,7 @@
       <c r="B5" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="12" t="s">
@@ -2389,7 +2401,7 @@
       <c r="B10" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="12" t="s">
@@ -2442,7 +2454,7 @@
       <c r="B15" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="12" t="s">
@@ -2526,11 +2538,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="20.862142857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
@@ -2696,7 +2708,7 @@
     <col min="20" max="20" style="8" width="19.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -2874,7 +2886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -2934,7 +2946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -2990,7 +3002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -3102,7 +3114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -3162,7 +3174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
@@ -3222,7 +3234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -3340,7 +3352,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -3396,7 +3408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5" t="s">
         <v>81</v>
       </c>
@@ -3458,7 +3470,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5" t="s">
         <v>89</v>
       </c>
@@ -3520,7 +3532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5" t="s">
         <v>96</v>
       </c>
@@ -3580,7 +3592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5" t="s">
         <v>100</v>
       </c>
@@ -3642,7 +3654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -3696,7 +3708,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5" t="s">
         <v>106</v>
       </c>
@@ -3752,7 +3764,7 @@
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5" t="s">
         <v>109</v>
       </c>
@@ -3808,7 +3820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="5" t="s">
         <v>111</v>
       </c>
@@ -3866,7 +3878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="5" t="s">
         <v>113</v>
       </c>
@@ -3922,7 +3934,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="5" t="s">
         <v>118</v>
       </c>
@@ -3980,7 +3992,7 @@
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="5" t="s">
         <v>123</v>
       </c>
@@ -4038,7 +4050,7 @@
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="5" t="s">
         <v>127</v>
       </c>
@@ -4098,7 +4110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="5" t="s">
         <v>130</v>
       </c>
@@ -4154,7 +4166,7 @@
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
@@ -4216,7 +4228,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="5" t="s">
         <v>135</v>
       </c>
@@ -4270,7 +4282,7 @@
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="5" t="s">
         <v>137</v>
       </c>
@@ -4328,7 +4340,7 @@
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="5" t="s">
         <v>139</v>
       </c>
@@ -4386,7 +4398,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="5" t="s">
         <v>142</v>
       </c>
@@ -4446,7 +4458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="5" t="s">
         <v>148</v>
       </c>
@@ -4506,7 +4518,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="5" t="s">
         <v>151</v>
       </c>
@@ -4562,7 +4574,7 @@
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="5" t="s">
         <v>153</v>
       </c>
@@ -4620,7 +4632,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="5" t="s">
         <v>156</v>
       </c>
@@ -4682,7 +4694,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="5" t="s">
         <v>158</v>
       </c>
@@ -4742,7 +4754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="5" t="s">
         <v>161</v>
       </c>
@@ -4804,7 +4816,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="5" t="s">
         <v>168</v>
       </c>
